--- a/2.Análise/2.3.PROT/prototipo.xlsx
+++ b/2.Análise/2.3.PROT/prototipo.xlsx
@@ -15,9 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$221</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$340</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>ctrlVac</t>
   </si>
@@ -243,6 +244,27 @@
   </si>
   <si>
     <t>Senha</t>
+  </si>
+  <si>
+    <t>Alterar registro de vacina</t>
+  </si>
+  <si>
+    <t>Alterar Funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alterar funcionário</t>
+  </si>
+  <si>
+    <t>Alterar Vacina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alterar vacina</t>
+  </si>
+  <si>
+    <t>Alterar Comorbidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alterar Comorbidade</t>
   </si>
 </sst>
 </file>
@@ -492,6 +514,18 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,23 +535,11 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,19 +560,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>187779</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="171450" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -581,20 +598,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>193222</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="171450" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2"/>
@@ -625,20 +637,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>193222</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="171450" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3"/>
@@ -669,20 +676,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>20376</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>181554</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="158694" cy="158694"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4"/>
@@ -713,20 +715,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26670</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>185364</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="158694" cy="158694"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5"/>
@@ -757,20 +754,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>20376</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>189174</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="158694" cy="158694"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6"/>
@@ -801,20 +793,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>20376</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>189174</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="158694" cy="158694"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7"/>
@@ -845,20 +832,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>185622</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129208</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="543844" cy="546652"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8"/>
@@ -889,20 +871,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>24824</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>8260</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="191718" cy="190476"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="Picture 19"/>
@@ -927,20 +904,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16541</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>16541</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="192960" cy="190476"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Picture 20"/>
@@ -965,20 +937,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190476</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190476</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="190476" cy="190476"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="22" name="Picture 21"/>
@@ -1003,20 +970,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190476</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190476</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="190476" cy="190476"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Picture 22"/>
@@ -1041,20 +1003,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190476</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190476</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="190476" cy="190476"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="Picture 23"/>
@@ -1079,20 +1036,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190476</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190476</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="190476" cy="190476"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="27" name="Picture 26"/>
@@ -1117,20 +1069,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>34788</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="498200" cy="324679"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="28" name="Picture 27"/>
@@ -1155,20 +1102,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289892</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>16303</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>173672</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="214933" cy="214519"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="29" name="Picture 28"/>
@@ -1199,20 +1141,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>162753</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>159854</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="331304" cy="331304"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="Picture 29"/>
@@ -1243,20 +1180,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>448090</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>135007</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="261731" cy="265044"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="Picture 30"/>
@@ -1287,20 +1219,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>15610</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>20069</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>178714</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="163104" cy="163104"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="Picture 32"/>
@@ -1331,20 +1258,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="217832" cy="215347"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="34" name="Picture 33"/>
@@ -1375,12 +1297,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>15610</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>20069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163104" cy="163104"/>
@@ -1419,7 +1341,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="217832" cy="215347"/>
@@ -1458,7 +1380,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="191718" cy="190476"/>
@@ -1491,7 +1413,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="192960" cy="190476"/>
@@ -1524,7 +1446,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="498200" cy="324679"/>
@@ -1557,7 +1479,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>280367</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>140128</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214933" cy="214519"/>
@@ -1595,8 +1517,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>272785</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:colOff>155555</xdr:colOff>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>29594</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163104" cy="163104"/>
@@ -1621,7 +1543,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7511785" y="25156544"/>
+          <a:off x="7401882" y="28619248"/>
           <a:ext cx="163104" cy="163104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1635,7 +1557,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="217832" cy="215347"/>
@@ -1674,7 +1596,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="498200" cy="324679"/>
@@ -1707,7 +1629,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>280367</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>140128</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214933" cy="214519"/>
@@ -1746,7 +1668,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>82285</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>10544</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163104" cy="163104"/>
@@ -1785,7 +1707,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="217832" cy="215347"/>
@@ -1820,19 +1742,14 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>253187</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>157937</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="167462" cy="167462"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="59" name="Picture 58"/>
@@ -1863,12 +1780,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>39119</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163104" cy="163104"/>
@@ -1903,19 +1820,14 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>89165</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>256627</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>186512</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="167462" cy="167462"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="65" name="Picture 64"/>
@@ -1946,20 +1858,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="200026" cy="200026"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="66" name="Picture 65"/>
@@ -1990,20 +1897,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="200026" cy="200026"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="67" name="Picture 66"/>
@@ -2034,20 +1936,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="200026" cy="200026"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="68" name="Picture 67"/>
@@ -2078,12 +1975,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2122,7 +2019,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2161,7 +2058,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -2200,7 +2097,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2239,7 +2136,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2278,7 +2175,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -2317,7 +2214,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2356,7 +2253,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2395,7 +2292,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -2434,7 +2331,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2473,7 +2370,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2512,7 +2409,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -2551,7 +2448,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2590,7 +2487,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2629,7 +2526,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -2668,7 +2565,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2707,7 +2604,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2746,7 +2643,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -2785,7 +2682,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>479978</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>154056</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543844" cy="546652"/>
@@ -2824,7 +2721,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331304" cy="331304"/>
@@ -2863,7 +2760,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>186359</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>60463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="261731" cy="265044"/>
@@ -3007,6 +2904,1285 @@
         <a:xfrm>
           <a:off x="7425359" y="3489463"/>
           <a:ext cx="261731" cy="265044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>227997</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>189464</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="0" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7474324" y="13597733"/>
+          <a:ext cx="204291" cy="204291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>227135</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>431426</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>13791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7473462" y="17460058"/>
+          <a:ext cx="204291" cy="204291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>346055</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>7614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>550346</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>21405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7592382" y="28597268"/>
+          <a:ext cx="204291" cy="204291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>490041</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>72407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7532077" y="39089135"/>
+          <a:ext cx="204291" cy="204291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>291612</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495903</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>78268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7537939" y="39475996"/>
+          <a:ext cx="204291" cy="204291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="498200" cy="324679"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781049" y="40934309"/>
+          <a:ext cx="498200" cy="324679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280367</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>140128</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="214933" cy="214519"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="575642" y="41745328"/>
+          <a:ext cx="214933" cy="214519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479978</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>154056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543844" cy="546652"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070653" y="37092006"/>
+          <a:ext cx="543844" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602974</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331304" cy="331304"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070449" y="36957000"/>
+          <a:ext cx="331304" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186359</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>60463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="261731" cy="265044"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7425359" y="36998413"/>
+          <a:ext cx="261731" cy="265044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="191718" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833231" y="29592934"/>
+          <a:ext cx="191718" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="192960" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1204706" y="29601215"/>
+          <a:ext cx="192960" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="498200" cy="324679"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781049" y="32599934"/>
+          <a:ext cx="498200" cy="324679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280367</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>140128</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="214933" cy="214519"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="575642" y="33410953"/>
+          <a:ext cx="214933" cy="214519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479978</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>154056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543844" cy="546652"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070653" y="27119331"/>
+          <a:ext cx="543844" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602974</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331304" cy="331304"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070449" y="26984325"/>
+          <a:ext cx="331304" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186359</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>60463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="261731" cy="265044"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7425359" y="27025738"/>
+          <a:ext cx="261731" cy="265044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="191718" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833231" y="14895859"/>
+          <a:ext cx="191718" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="192960" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1204706" y="14904140"/>
+          <a:ext cx="192960" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190476" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="15363825"/>
+          <a:ext cx="190476" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190476" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="15363825"/>
+          <a:ext cx="190476" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190476" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="15363825"/>
+          <a:ext cx="190476" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190476" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="15363825"/>
+          <a:ext cx="190476" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="498200" cy="324679"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781049" y="16121684"/>
+          <a:ext cx="498200" cy="324679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>16303</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="214933" cy="214519"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585167" y="16542178"/>
+          <a:ext cx="214933" cy="214519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479978</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>154056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543844" cy="546652"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070653" y="12536556"/>
+          <a:ext cx="543844" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602974</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331304" cy="331304"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070449" y="12401550"/>
+          <a:ext cx="331304" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186359</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="261731" cy="265044"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7425359" y="12442963"/>
+          <a:ext cx="261731" cy="265044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="18526125"/>
+          <a:ext cx="200026" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479978</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>154056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543844" cy="546652"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070653" y="27509856"/>
+          <a:ext cx="543844" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602974</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331304" cy="331304"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 120"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070449" y="27374850"/>
+          <a:ext cx="331304" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186359</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>60463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="261731" cy="265044"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7425359" y="27416263"/>
+          <a:ext cx="261731" cy="265044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="498200" cy="324679"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781049" y="34657334"/>
+          <a:ext cx="498200" cy="324679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280367</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>140128</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="214933" cy="214519"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="575642" y="35468353"/>
+          <a:ext cx="214933" cy="214519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3281,10 +4457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X219"/>
+  <dimension ref="B1:X338"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A154" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="T164" sqref="T164"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="Y145" sqref="Y145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,14 +4519,14 @@
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -3370,12 +4546,12 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3395,12 +4571,12 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -3779,14 +4955,14 @@
     </row>
     <row r="21" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3806,12 +4982,12 @@
     </row>
     <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3831,12 +5007,12 @@
     </row>
     <row r="23" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -4200,14 +5376,14 @@
     </row>
     <row r="39" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -4227,12 +5403,12 @@
     </row>
     <row r="40" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -4252,12 +5428,12 @@
     </row>
     <row r="41" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -4876,46 +6052,96 @@
       <c r="W64" s="8"/>
       <c r="X64" s="9"/>
     </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="3"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="6"/>
     </row>
     <row r="69" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -4935,12 +6161,12 @@
     </row>
     <row r="70" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -4958,14 +6184,16 @@
       <c r="W70" s="5"/>
       <c r="X70" s="6"/>
     </row>
-    <row r="71" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
+      <c r="C71" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -4985,10 +6213,8 @@
     </row>
     <row r="72" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
-      <c r="C72" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="5"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -5010,10 +6236,12 @@
       <c r="W72" s="5"/>
       <c r="X72" s="6"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -5037,31 +6265,21 @@
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
@@ -5070,28 +6288,20 @@
       <c r="W74" s="5"/>
       <c r="X74" s="6"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
-      <c r="C75" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="5">
-        <v>2</v>
-      </c>
+      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="5">
-        <v>3</v>
-      </c>
+      <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -5106,7 +6316,9 @@
     <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -5131,13 +6343,13 @@
     <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -5181,7 +6393,9 @@
     <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -5207,9 +6421,13 @@
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
       <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="15">
+        <v>2</v>
+      </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -5228,7 +6446,7 @@
       <c r="W80" s="5"/>
       <c r="X80" s="6"/>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -5256,7 +6474,9 @@
     <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -5282,14 +6502,22 @@
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
+      <c r="L83" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -5303,12 +6531,10 @@
       <c r="W83" s="5"/>
       <c r="X83" s="6"/>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -5331,70 +6557,115 @@
       <c r="X84" s="6"/>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="9"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="6"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="6"/>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="6"/>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="6"/>
+    </row>
+    <row r="89" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
-      <c r="C89" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -5412,14 +6683,14 @@
       <c r="W89" s="5"/>
       <c r="X89" s="6"/>
     </row>
-    <row r="90" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -5437,14 +6708,14 @@
       <c r="W90" s="5"/>
       <c r="X90" s="6"/>
     </row>
-    <row r="91" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -5462,12 +6733,12 @@
       <c r="W91" s="5"/>
       <c r="X91" s="6"/>
     </row>
-    <row r="92" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
-      <c r="C92" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -5490,144 +6761,70 @@
       <c r="X92" s="6"/>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="6"/>
-    </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="6"/>
-    </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="9"/>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="6"/>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="6"/>
-    </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="C98" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -5645,14 +6842,14 @@
       <c r="W98" s="5"/>
       <c r="X98" s="6"/>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -5670,14 +6867,14 @@
       <c r="W99" s="5"/>
       <c r="X99" s="6"/>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -5695,9 +6892,11 @@
       <c r="W100" s="5"/>
       <c r="X100" s="6"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5747,21 +6946,31 @@
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
+      <c r="C103" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
@@ -5772,20 +6981,26 @@
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
       <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="K104" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="N104" s="5">
+        <v>3</v>
+      </c>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
@@ -5798,70 +7013,113 @@
       <c r="X104" s="6"/>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="8"/>
-      <c r="X105" s="9"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="6"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="6"/>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="6"/>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="3"/>
-    </row>
-    <row r="109" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="6"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
-      <c r="C109" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -5879,14 +7137,14 @@
       <c r="W109" s="5"/>
       <c r="X109" s="6"/>
     </row>
-    <row r="110" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -5904,14 +7162,14 @@
       <c r="W110" s="5"/>
       <c r="X110" s="6"/>
     </row>
-    <row r="111" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -5929,12 +7187,10 @@
       <c r="W111" s="5"/>
       <c r="X111" s="6"/>
     </row>
-    <row r="112" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
-      <c r="C112" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D112" s="11"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -5956,10 +7212,12 @@
       <c r="W112" s="5"/>
       <c r="X112" s="6"/>
     </row>
-    <row r="113" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="11"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -5981,122 +7239,73 @@
       <c r="W113" s="5"/>
       <c r="X113" s="6"/>
     </row>
-    <row r="114" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B114" s="4"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="6"/>
-    </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
-      <c r="W115" s="5"/>
-      <c r="X115" s="6"/>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="9"/>
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
-      <c r="X116" s="6"/>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-      <c r="X117" s="6"/>
-    </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="33">
-        <v>32874</v>
-      </c>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
+      <c r="C118" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -6112,14 +7321,14 @@
       <c r="W118" s="5"/>
       <c r="X118" s="6"/>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -6137,16 +7346,14 @@
       <c r="W119" s="5"/>
       <c r="X119" s="6"/>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -6164,17 +7371,15 @@
       <c r="W120" s="5"/>
       <c r="X120" s="6"/>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B121" s="4"/>
-      <c r="C121" s="5"/>
+      <c r="C121" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -6193,13 +7398,13 @@
       <c r="W121" s="5"/>
       <c r="X121" s="6"/>
     </row>
-    <row r="122" spans="2:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="15"/>
+      <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="15"/>
+      <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -6220,23 +7425,25 @@
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
+      <c r="C123" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
@@ -6247,16 +7454,16 @@
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="14"/>
+      <c r="C124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -6275,7 +7482,7 @@
     <row r="125" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="22"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -6300,9 +7507,7 @@
     <row r="126" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -6327,9 +7532,7 @@
     <row r="127" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -6354,13 +7557,13 @@
     <row r="128" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="14"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -6379,9 +7582,7 @@
     <row r="129" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -6406,13 +7607,13 @@
     <row r="130" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="14"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -6431,9 +7632,7 @@
     <row r="131" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -6458,13 +7657,13 @@
     <row r="132" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="14"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -6483,8 +7682,8 @@
     <row r="133" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="19" t="s">
-        <v>41</v>
+      <c r="D133" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -6508,115 +7707,70 @@
       <c r="X133" s="6"/>
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
-      <c r="W134" s="5"/>
-      <c r="X134" s="6"/>
-    </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
-      <c r="W135" s="5"/>
-      <c r="X135" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="8"/>
+      <c r="U134" s="8"/>
+      <c r="V134" s="8"/>
+      <c r="W134" s="8"/>
+      <c r="X134" s="9"/>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5"/>
-      <c r="V136" s="5"/>
-      <c r="W136" s="5"/>
-      <c r="X136" s="6"/>
+      <c r="B136" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5"/>
-      <c r="V137" s="5"/>
-      <c r="W137" s="5"/>
-      <c r="X137" s="6"/>
-    </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="3"/>
+    </row>
+    <row r="138" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="C138" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -6634,14 +7788,14 @@
       <c r="W138" s="5"/>
       <c r="X138" s="6"/>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -6659,14 +7813,14 @@
       <c r="W139" s="5"/>
       <c r="X139" s="6"/>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -6684,10 +7838,12 @@
       <c r="W140" s="5"/>
       <c r="X140" s="6"/>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B141" s="4"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="C141" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D141" s="11"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -6709,12 +7865,10 @@
       <c r="W141" s="5"/>
       <c r="X141" s="6"/>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B142" s="4"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="11"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -6736,73 +7890,120 @@
       <c r="W142" s="5"/>
       <c r="X142" s="6"/>
     </row>
-    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
-      <c r="O143" s="8"/>
-      <c r="P143" s="8"/>
-      <c r="Q143" s="8"/>
-      <c r="R143" s="8"/>
-      <c r="S143" s="8"/>
-      <c r="T143" s="8"/>
-      <c r="U143" s="8"/>
-      <c r="V143" s="8"/>
-      <c r="W143" s="8"/>
-      <c r="X143" s="9"/>
+    <row r="143" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B143" s="4"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="6"/>
+    </row>
+    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="6"/>
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>43</v>
-      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="6"/>
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="3"/>
-    </row>
-    <row r="147" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="6"/>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
-      <c r="C147" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="30"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
@@ -6818,14 +8019,14 @@
       <c r="W147" s="5"/>
       <c r="X147" s="6"/>
     </row>
-    <row r="148" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -6843,14 +8044,14 @@
       <c r="W148" s="5"/>
       <c r="X148" s="6"/>
     </row>
-    <row r="149" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -6868,11 +8069,9 @@
       <c r="W149" s="5"/>
       <c r="X149" s="6"/>
     </row>
-    <row r="150" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
-      <c r="C150" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -6922,94 +8121,60 @@
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
-      <c r="C152" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H152" s="16"/>
-      <c r="I152" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J152" s="16"/>
-      <c r="K152" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="16"/>
-      <c r="M152" s="16"/>
-      <c r="N152" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O152" s="16"/>
-      <c r="P152" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q152" s="23"/>
-      <c r="R152" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="S152" s="23"/>
-      <c r="T152" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="U152" s="23"/>
-      <c r="V152" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
       <c r="W152" s="5"/>
       <c r="X152" s="6"/>
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
-      <c r="C153" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="29">
-        <v>32309</v>
-      </c>
-      <c r="H153" s="29"/>
-      <c r="I153" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-      <c r="L153" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="L153" s="5"/>
       <c r="M153" s="5"/>
-      <c r="N153" s="5">
-        <v>3</v>
-      </c>
+      <c r="N153" s="5"/>
       <c r="O153" s="5"/>
-      <c r="P153" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
-      <c r="R153" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="R153" s="5"/>
       <c r="S153" s="5"/>
-      <c r="T153" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="T153" s="5"/>
       <c r="U153" s="5"/>
-      <c r="V153" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="V153" s="5"/>
       <c r="W153" s="5"/>
       <c r="X153" s="6"/>
     </row>
     <row r="154" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -7032,32 +8197,32 @@
       <c r="X154" s="6"/>
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B155" s="4"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5"/>
-      <c r="V155" s="5"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="8"/>
+      <c r="U155" s="8"/>
+      <c r="V155" s="8"/>
+      <c r="W155" s="8"/>
+      <c r="X155" s="9"/>
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B156" s="4"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -7079,66 +8244,48 @@
       <c r="U156" s="5"/>
       <c r="V156" s="5"/>
       <c r="W156" s="5"/>
-      <c r="X156" s="6"/>
+      <c r="X156" s="5"/>
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B157" s="4"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-      <c r="U157" s="5"/>
-      <c r="V157" s="5"/>
-      <c r="W157" s="5"/>
-      <c r="X157" s="6"/>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B158" s="4"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5"/>
-      <c r="V158" s="5"/>
-      <c r="W158" s="5"/>
-      <c r="X158" s="6"/>
-    </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2"/>
+      <c r="V158" s="2"/>
+      <c r="W158" s="2"/>
+      <c r="X158" s="3"/>
+    </row>
+    <row r="159" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
+      <c r="C159" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -7156,14 +8303,14 @@
       <c r="W159" s="5"/>
       <c r="X159" s="6"/>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -7181,14 +8328,14 @@
       <c r="W160" s="5"/>
       <c r="X160" s="6"/>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -7206,12 +8353,12 @@
       <c r="W161" s="5"/>
       <c r="X161" s="6"/>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B162" s="4"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C162" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="11"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -7233,71 +8380,118 @@
       <c r="W162" s="5"/>
       <c r="X162" s="6"/>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="8"/>
-      <c r="S163" s="8"/>
-      <c r="T163" s="8"/>
-      <c r="U163" s="8"/>
-      <c r="V163" s="8"/>
-      <c r="W163" s="8"/>
-      <c r="X163" s="9"/>
+    <row r="163" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B163" s="4"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="6"/>
+    </row>
+    <row r="164" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B164" s="4"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="6"/>
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="6"/>
     </row>
     <row r="166" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="3"/>
-    </row>
-    <row r="167" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5"/>
+      <c r="V166" s="5"/>
+      <c r="W166" s="5"/>
+      <c r="X166" s="6"/>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
-      <c r="C167" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -7315,16 +8509,18 @@
       <c r="W167" s="5"/>
       <c r="X167" s="6"/>
     </row>
-    <row r="168" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="30"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="28">
+        <v>32874</v>
+      </c>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="30"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
@@ -7340,14 +8536,14 @@
       <c r="W168" s="5"/>
       <c r="X168" s="6"/>
     </row>
-    <row r="169" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
@@ -7365,12 +8561,12 @@
       <c r="W169" s="5"/>
       <c r="X169" s="6"/>
     </row>
-    <row r="170" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
-      <c r="C170" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="11"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -7392,13 +8588,17 @@
       <c r="W170" s="5"/>
       <c r="X170" s="6"/>
     </row>
-    <row r="171" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
+      <c r="G171" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -7417,15 +8617,13 @@
       <c r="W171" s="5"/>
       <c r="X171" s="6"/>
     </row>
-    <row r="172" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="15"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
+      <c r="G172" s="15"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -7447,13 +8645,15 @@
     <row r="173" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="13"/>
-      <c r="J173" s="14"/>
+      <c r="D173" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
@@ -7469,16 +8669,18 @@
       <c r="W173" s="5"/>
       <c r="X173" s="6"/>
     </row>
-    <row r="174" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
+      <c r="D174" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="14"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
@@ -7497,9 +8699,7 @@
     <row r="175" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="D175" s="22"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -7524,13 +8724,15 @@
     <row r="176" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="34"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="34"/>
-      <c r="I176" s="34"/>
-      <c r="J176" s="35"/>
+      <c r="D176" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
@@ -7546,10 +8748,12 @@
       <c r="W176" s="5"/>
       <c r="X176" s="6"/>
     </row>
-    <row r="177" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -7574,15 +8778,13 @@
     <row r="178" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="14"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
@@ -7601,15 +8803,15 @@
     <row r="179" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="33">
-        <v>32874</v>
-      </c>
-      <c r="E179" s="34"/>
-      <c r="F179" s="34"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="34"/>
-      <c r="J179" s="35"/>
+      <c r="D179" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
@@ -7625,16 +8827,16 @@
       <c r="W179" s="5"/>
       <c r="X179" s="6"/>
     </row>
-    <row r="180" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="14"/>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
@@ -7654,7 +8856,7 @@
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
       <c r="D181" s="19" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
@@ -7680,10 +8882,8 @@
     <row r="182" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="E182" s="32"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="13"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
@@ -7704,11 +8904,13 @@
       <c r="W182" s="5"/>
       <c r="X182" s="6"/>
     </row>
-    <row r="183" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
+      <c r="D183" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -7732,15 +8934,13 @@
     <row r="184" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="14"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
@@ -7759,13 +8959,15 @@
     <row r="185" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="3"/>
+      <c r="D185" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
@@ -7784,13 +8986,13 @@
     <row r="186" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="6"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="14"/>
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
@@ -7809,13 +9011,13 @@
     <row r="187" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="9"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
@@ -7934,7 +9136,9 @@
     <row r="192" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -7957,97 +9161,145 @@
       <c r="X192" s="6"/>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B193" s="4"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
-      <c r="O193" s="5"/>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5"/>
-      <c r="V193" s="5"/>
-      <c r="W193" s="5"/>
-      <c r="X193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8"/>
+      <c r="O193" s="8"/>
+      <c r="P193" s="8"/>
+      <c r="Q193" s="8"/>
+      <c r="R193" s="8"/>
+      <c r="S193" s="8"/>
+      <c r="T193" s="8"/>
+      <c r="U193" s="8"/>
+      <c r="V193" s="8"/>
+      <c r="W193" s="8"/>
+      <c r="X193" s="9"/>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B194" s="7"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="8"/>
-      <c r="O194" s="8"/>
-      <c r="P194" s="8"/>
-      <c r="Q194" s="8"/>
-      <c r="R194" s="8"/>
-      <c r="S194" s="8"/>
-      <c r="T194" s="8"/>
-      <c r="U194" s="8"/>
-      <c r="V194" s="8"/>
-      <c r="W194" s="8"/>
-      <c r="X194" s="9"/>
-    </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B198" s="1"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
-      <c r="V198" s="2"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="3"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="5"/>
+      <c r="V194" s="5"/>
+      <c r="W194" s="5"/>
+      <c r="X194" s="5"/>
+    </row>
+    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="2"/>
+      <c r="X196" s="3"/>
+    </row>
+    <row r="197" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5"/>
+      <c r="V197" s="5"/>
+      <c r="W197" s="5"/>
+      <c r="X197" s="6"/>
+    </row>
+    <row r="198" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="5"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="5"/>
+      <c r="V198" s="5"/>
+      <c r="W198" s="5"/>
+      <c r="X198" s="6"/>
     </row>
     <row r="199" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
-      <c r="C199" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D199" s="30"/>
-      <c r="E199" s="30"/>
-      <c r="F199" s="30"/>
-      <c r="G199" s="30"/>
-      <c r="H199" s="30"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -8065,14 +9317,16 @@
       <c r="W199" s="5"/>
       <c r="X199" s="6"/>
     </row>
-    <row r="200" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B200" s="4"/>
-      <c r="C200" s="30"/>
-      <c r="D200" s="30"/>
-      <c r="E200" s="30"/>
-      <c r="F200" s="30"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="30"/>
+      <c r="C200" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D200" s="11"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -8090,14 +9344,14 @@
       <c r="W200" s="5"/>
       <c r="X200" s="6"/>
     </row>
-    <row r="201" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B201" s="4"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
-      <c r="F201" s="30"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="30"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -8117,10 +9371,10 @@
     </row>
     <row r="202" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B202" s="4"/>
-      <c r="C202" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D202" s="5"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -8145,13 +9399,13 @@
     <row r="203" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="14"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
@@ -8170,9 +9424,7 @@
     <row r="204" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -8197,8 +9449,8 @@
     <row r="205" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
-      <c r="D205" s="5" t="s">
-        <v>67</v>
+      <c r="D205" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -8224,15 +9476,15 @@
     <row r="206" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
-      <c r="D206" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
+      <c r="D206" s="28">
+        <v>32874</v>
+      </c>
+      <c r="E206" s="29"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="29"/>
+      <c r="H206" s="29"/>
+      <c r="I206" s="29"/>
+      <c r="J206" s="30"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
@@ -8275,171 +9527,143 @@
     </row>
     <row r="208" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
-      <c r="C208" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I208" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J208" s="16"/>
-      <c r="K208" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L208" s="16"/>
-      <c r="M208" s="16"/>
-      <c r="N208" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O208" s="16"/>
-      <c r="P208" s="23"/>
-      <c r="Q208" s="23"/>
-      <c r="R208" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S208" s="23"/>
-      <c r="T208" s="23"/>
-      <c r="U208" s="23"/>
-      <c r="V208" s="23" t="s">
-        <v>51</v>
-      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+      <c r="R208" s="5"/>
+      <c r="S208" s="5"/>
+      <c r="T208" s="5"/>
+      <c r="U208" s="5"/>
+      <c r="V208" s="5"/>
       <c r="W208" s="5"/>
       <c r="X208" s="6"/>
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
-      <c r="C209" s="29">
-        <v>32309</v>
-      </c>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="5"/>
+      <c r="G209" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="27">
-        <v>44562</v>
-      </c>
-      <c r="L209" s="28"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
       <c r="M209" s="5"/>
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
       <c r="P209" s="5"/>
       <c r="Q209" s="5"/>
-      <c r="R209" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="R209" s="5"/>
       <c r="S209" s="5"/>
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
-      <c r="V209" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="V209" s="5"/>
       <c r="W209" s="5"/>
       <c r="X209" s="6"/>
     </row>
-    <row r="210" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-      <c r="P210" s="8"/>
-      <c r="Q210" s="8"/>
-      <c r="R210" s="8"/>
-      <c r="S210" s="8"/>
-      <c r="T210" s="8"/>
-      <c r="U210" s="8"/>
-      <c r="V210" s="8"/>
-      <c r="W210" s="8"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5"/>
+      <c r="V210" s="5"/>
+      <c r="W210" s="5"/>
       <c r="X210" s="6"/>
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
-      <c r="C211" s="29">
-        <v>34865</v>
-      </c>
-      <c r="D211" s="29"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="11"/>
-      <c r="H211" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I211" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="27">
-        <v>44597</v>
-      </c>
-      <c r="L211" s="28"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
       <c r="M211" s="5"/>
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
       <c r="P211" s="5"/>
       <c r="Q211" s="5"/>
-      <c r="R211" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="R211" s="5"/>
       <c r="S211" s="5"/>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="V211" s="5"/>
       <c r="W211" s="5"/>
       <c r="X211" s="6"/>
     </row>
     <row r="212" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
-      <c r="N212" s="8"/>
-      <c r="O212" s="8"/>
-      <c r="P212" s="8"/>
-      <c r="Q212" s="8"/>
-      <c r="R212" s="8"/>
-      <c r="S212" s="8"/>
-      <c r="T212" s="8"/>
-      <c r="U212" s="8"/>
-      <c r="V212" s="8"/>
-      <c r="W212" s="8"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="5"/>
+      <c r="V212" s="5"/>
+      <c r="W212" s="5"/>
       <c r="X212" s="6"/>
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+      <c r="D213" s="22"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -8464,7 +9688,9 @@
     <row r="214" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="D214" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -8489,7 +9715,9 @@
     <row r="215" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+      <c r="D215" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -8514,13 +9742,13 @@
     <row r="216" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="14"/>
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
@@ -8539,7 +9767,9 @@
     <row r="217" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+      <c r="D217" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -8564,15 +9794,13 @@
     <row r="218" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
-      <c r="D218" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="14"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
@@ -8589,56 +9817,2976 @@
       <c r="X218" s="6"/>
     </row>
     <row r="219" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-      <c r="Q219" s="8"/>
-      <c r="R219" s="8"/>
-      <c r="S219" s="8"/>
-      <c r="T219" s="8"/>
-      <c r="U219" s="8"/>
-      <c r="V219" s="8"/>
-      <c r="W219" s="8"/>
-      <c r="X219" s="9"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5"/>
+      <c r="V219" s="5"/>
+      <c r="W219" s="5"/>
+      <c r="X219" s="6"/>
+    </row>
+    <row r="220" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="14"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+      <c r="U220" s="5"/>
+      <c r="V220" s="5"/>
+      <c r="W220" s="5"/>
+      <c r="X220" s="6"/>
+    </row>
+    <row r="221" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5"/>
+      <c r="V221" s="5"/>
+      <c r="W221" s="5"/>
+      <c r="X221" s="6"/>
+    </row>
+    <row r="222" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B222" s="4"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
+      <c r="R222" s="5"/>
+      <c r="S222" s="5"/>
+      <c r="T222" s="5"/>
+      <c r="U222" s="5"/>
+      <c r="V222" s="5"/>
+      <c r="W222" s="5"/>
+      <c r="X222" s="6"/>
+    </row>
+    <row r="223" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5"/>
+      <c r="V223" s="5"/>
+      <c r="W223" s="5"/>
+      <c r="X223" s="6"/>
+    </row>
+    <row r="224" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+      <c r="U224" s="5"/>
+      <c r="V224" s="5"/>
+      <c r="W224" s="5"/>
+      <c r="X224" s="6"/>
+    </row>
+    <row r="225" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5"/>
+      <c r="V225" s="5"/>
+      <c r="W225" s="5"/>
+      <c r="X225" s="6"/>
+    </row>
+    <row r="226" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+      <c r="U226" s="5"/>
+      <c r="V226" s="5"/>
+      <c r="W226" s="5"/>
+      <c r="X226" s="6"/>
+    </row>
+    <row r="227" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="5"/>
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
+      <c r="R227" s="5"/>
+      <c r="S227" s="5"/>
+      <c r="T227" s="5"/>
+      <c r="U227" s="5"/>
+      <c r="V227" s="5"/>
+      <c r="W227" s="5"/>
+      <c r="X227" s="6"/>
+    </row>
+    <row r="228" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+      <c r="M228" s="5"/>
+      <c r="N228" s="5"/>
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="5"/>
+      <c r="T228" s="5"/>
+      <c r="U228" s="5"/>
+      <c r="V228" s="5"/>
+      <c r="W228" s="5"/>
+      <c r="X228" s="6"/>
+    </row>
+    <row r="229" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+      <c r="M229" s="5"/>
+      <c r="N229" s="5"/>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
+      <c r="R229" s="5"/>
+      <c r="S229" s="5"/>
+      <c r="T229" s="5"/>
+      <c r="U229" s="5"/>
+      <c r="V229" s="5"/>
+      <c r="W229" s="5"/>
+      <c r="X229" s="6"/>
+    </row>
+    <row r="230" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
+      <c r="R230" s="5"/>
+      <c r="S230" s="5"/>
+      <c r="T230" s="5"/>
+      <c r="U230" s="5"/>
+      <c r="V230" s="5"/>
+      <c r="W230" s="5"/>
+      <c r="X230" s="6"/>
+    </row>
+    <row r="231" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B231" s="7"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="8"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
+      <c r="J231" s="8"/>
+      <c r="K231" s="8"/>
+      <c r="L231" s="8"/>
+      <c r="M231" s="8"/>
+      <c r="N231" s="8"/>
+      <c r="O231" s="8"/>
+      <c r="P231" s="8"/>
+      <c r="Q231" s="8"/>
+      <c r="R231" s="8"/>
+      <c r="S231" s="8"/>
+      <c r="T231" s="8"/>
+      <c r="U231" s="8"/>
+      <c r="V231" s="8"/>
+      <c r="W231" s="8"/>
+      <c r="X231" s="9"/>
+    </row>
+    <row r="233" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B234" s="1"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+      <c r="V234" s="2"/>
+      <c r="W234" s="2"/>
+      <c r="X234" s="3"/>
+    </row>
+    <row r="235" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="C235" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="27"/>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5"/>
+      <c r="V235" s="5"/>
+      <c r="W235" s="5"/>
+      <c r="X235" s="6"/>
+    </row>
+    <row r="236" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="4"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="5"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="5"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="5"/>
+      <c r="V236" s="5"/>
+      <c r="W236" s="5"/>
+      <c r="X236" s="6"/>
+    </row>
+    <row r="237" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="M237" s="5"/>
+      <c r="N237" s="5"/>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5"/>
+      <c r="V237" s="5"/>
+      <c r="W237" s="5"/>
+      <c r="X237" s="6"/>
+    </row>
+    <row r="238" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B238" s="4"/>
+      <c r="C238" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="5"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="5"/>
+      <c r="V238" s="5"/>
+      <c r="W238" s="5"/>
+      <c r="X238" s="6"/>
+    </row>
+    <row r="239" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="5"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5"/>
+      <c r="V239" s="5"/>
+      <c r="W239" s="5"/>
+      <c r="X239" s="6"/>
+    </row>
+    <row r="240" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H240" s="16"/>
+      <c r="I240" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J240" s="16"/>
+      <c r="K240" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L240" s="16"/>
+      <c r="M240" s="16"/>
+      <c r="N240" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O240" s="16"/>
+      <c r="P240" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q240" s="23"/>
+      <c r="R240" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S240" s="23"/>
+      <c r="T240" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U240" s="23"/>
+      <c r="V240" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="W240" s="5"/>
+      <c r="X240" s="6"/>
+    </row>
+    <row r="241" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="33">
+        <v>32309</v>
+      </c>
+      <c r="H241" s="33"/>
+      <c r="I241" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5">
+        <v>3</v>
+      </c>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S241" s="5"/>
+      <c r="T241" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U241" s="5"/>
+      <c r="V241" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W241" s="5"/>
+      <c r="X241" s="6"/>
+    </row>
+    <row r="242" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="M242" s="5"/>
+      <c r="N242" s="5"/>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="5"/>
+      <c r="V242" s="5"/>
+      <c r="W242" s="5"/>
+      <c r="X242" s="6"/>
+    </row>
+    <row r="243" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="5"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="5"/>
+      <c r="V243" s="5"/>
+      <c r="W243" s="5"/>
+      <c r="X243" s="6"/>
+    </row>
+    <row r="244" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="5"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+      <c r="R244" s="5"/>
+      <c r="S244" s="5"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="5"/>
+      <c r="V244" s="5"/>
+      <c r="W244" s="5"/>
+      <c r="X244" s="6"/>
+    </row>
+    <row r="245" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="5"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="5"/>
+      <c r="V245" s="5"/>
+      <c r="W245" s="5"/>
+      <c r="X245" s="6"/>
+    </row>
+    <row r="246" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="5"/>
+      <c r="V246" s="5"/>
+      <c r="W246" s="5"/>
+      <c r="X246" s="6"/>
+    </row>
+    <row r="247" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="5"/>
+      <c r="N247" s="5"/>
+      <c r="O247" s="5"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
+      <c r="R247" s="5"/>
+      <c r="S247" s="5"/>
+      <c r="T247" s="5"/>
+      <c r="U247" s="5"/>
+      <c r="V247" s="5"/>
+      <c r="W247" s="5"/>
+      <c r="X247" s="6"/>
+    </row>
+    <row r="248" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="5"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
+      <c r="R248" s="5"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="5"/>
+      <c r="U248" s="5"/>
+      <c r="V248" s="5"/>
+      <c r="W248" s="5"/>
+      <c r="X248" s="6"/>
+    </row>
+    <row r="249" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+      <c r="R249" s="5"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="5"/>
+      <c r="V249" s="5"/>
+      <c r="W249" s="5"/>
+      <c r="X249" s="6"/>
+    </row>
+    <row r="250" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="5"/>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5"/>
+      <c r="V250" s="5"/>
+      <c r="W250" s="5"/>
+      <c r="X250" s="6"/>
+    </row>
+    <row r="251" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B251" s="7"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+      <c r="J251" s="8"/>
+      <c r="K251" s="8"/>
+      <c r="L251" s="8"/>
+      <c r="M251" s="8"/>
+      <c r="N251" s="8"/>
+      <c r="O251" s="8"/>
+      <c r="P251" s="8"/>
+      <c r="Q251" s="8"/>
+      <c r="R251" s="8"/>
+      <c r="S251" s="8"/>
+      <c r="T251" s="8"/>
+      <c r="U251" s="8"/>
+      <c r="V251" s="8"/>
+      <c r="W251" s="8"/>
+      <c r="X251" s="9"/>
+    </row>
+    <row r="253" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B254" s="1"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2"/>
+      <c r="V254" s="2"/>
+      <c r="W254" s="2"/>
+      <c r="X254" s="3"/>
+    </row>
+    <row r="255" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" s="27"/>
+      <c r="E255" s="27"/>
+      <c r="F255" s="27"/>
+      <c r="G255" s="27"/>
+      <c r="H255" s="27"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5"/>
+      <c r="V255" s="5"/>
+      <c r="W255" s="5"/>
+      <c r="X255" s="6"/>
+    </row>
+    <row r="256" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="4"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="27"/>
+      <c r="G256" s="27"/>
+      <c r="H256" s="27"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5"/>
+      <c r="V256" s="5"/>
+      <c r="W256" s="5"/>
+      <c r="X256" s="6"/>
+    </row>
+    <row r="257" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="27"/>
+      <c r="E257" s="27"/>
+      <c r="F257" s="27"/>
+      <c r="G257" s="27"/>
+      <c r="H257" s="27"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="5"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="5"/>
+      <c r="V257" s="5"/>
+      <c r="W257" s="5"/>
+      <c r="X257" s="6"/>
+    </row>
+    <row r="258" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B258" s="4"/>
+      <c r="C258" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="11"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5"/>
+      <c r="V258" s="5"/>
+      <c r="W258" s="5"/>
+      <c r="X258" s="6"/>
+    </row>
+    <row r="259" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B259" s="4"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5"/>
+      <c r="V259" s="5"/>
+      <c r="W259" s="5"/>
+      <c r="X259" s="6"/>
+    </row>
+    <row r="260" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B260" s="4"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="5"/>
+      <c r="V260" s="5"/>
+      <c r="W260" s="5"/>
+      <c r="X260" s="6"/>
+    </row>
+    <row r="261" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="13"/>
+      <c r="H261" s="13"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
+      <c r="R261" s="5"/>
+      <c r="S261" s="5"/>
+      <c r="T261" s="5"/>
+      <c r="U261" s="5"/>
+      <c r="V261" s="5"/>
+      <c r="W261" s="5"/>
+      <c r="X261" s="6"/>
+    </row>
+    <row r="262" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="4"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="5"/>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
+      <c r="R262" s="5"/>
+      <c r="S262" s="5"/>
+      <c r="T262" s="5"/>
+      <c r="U262" s="5"/>
+      <c r="V262" s="5"/>
+      <c r="W262" s="5"/>
+      <c r="X262" s="6"/>
+    </row>
+    <row r="263" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5"/>
+      <c r="V263" s="5"/>
+      <c r="W263" s="5"/>
+      <c r="X263" s="6"/>
+    </row>
+    <row r="264" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="29"/>
+      <c r="G264" s="29"/>
+      <c r="H264" s="29"/>
+      <c r="I264" s="29"/>
+      <c r="J264" s="30"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5"/>
+      <c r="V264" s="5"/>
+      <c r="W264" s="5"/>
+      <c r="X264" s="6"/>
+    </row>
+    <row r="265" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="5"/>
+      <c r="P265" s="5"/>
+      <c r="Q265" s="5"/>
+      <c r="R265" s="5"/>
+      <c r="S265" s="5"/>
+      <c r="T265" s="5"/>
+      <c r="U265" s="5"/>
+      <c r="V265" s="5"/>
+      <c r="W265" s="5"/>
+      <c r="X265" s="6"/>
+    </row>
+    <row r="266" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B266" s="4"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="5"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="5"/>
+      <c r="T266" s="5"/>
+      <c r="U266" s="5"/>
+      <c r="V266" s="5"/>
+      <c r="W266" s="5"/>
+      <c r="X266" s="6"/>
+    </row>
+    <row r="267" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B267" s="4"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="28">
+        <v>32874</v>
+      </c>
+      <c r="E267" s="29"/>
+      <c r="F267" s="29"/>
+      <c r="G267" s="29"/>
+      <c r="H267" s="29"/>
+      <c r="I267" s="29"/>
+      <c r="J267" s="30"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="5"/>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
+      <c r="R267" s="5"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="5"/>
+      <c r="V267" s="5"/>
+      <c r="W267" s="5"/>
+      <c r="X267" s="6"/>
+    </row>
+    <row r="268" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="22"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="5"/>
+      <c r="V268" s="5"/>
+      <c r="W268" s="5"/>
+      <c r="X268" s="6"/>
+    </row>
+    <row r="269" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="5"/>
+      <c r="M269" s="5"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="5"/>
+      <c r="V269" s="5"/>
+      <c r="W269" s="5"/>
+      <c r="X269" s="6"/>
+    </row>
+    <row r="270" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E270" s="35"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="13"/>
+      <c r="H270" s="13"/>
+      <c r="I270" s="13"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5"/>
+      <c r="V270" s="5"/>
+      <c r="W270" s="5"/>
+      <c r="X270" s="6"/>
+    </row>
+    <row r="271" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5"/>
+      <c r="V271" s="5"/>
+      <c r="W271" s="5"/>
+      <c r="X271" s="6"/>
+    </row>
+    <row r="272" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
+      <c r="M272" s="5"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5"/>
+      <c r="V272" s="5"/>
+      <c r="W272" s="5"/>
+      <c r="X272" s="6"/>
+    </row>
+    <row r="273" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="5"/>
+      <c r="V273" s="5"/>
+      <c r="W273" s="5"/>
+      <c r="X273" s="6"/>
+    </row>
+    <row r="274" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="25"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="5"/>
+      <c r="V274" s="5"/>
+      <c r="W274" s="5"/>
+      <c r="X274" s="6"/>
+    </row>
+    <row r="275" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="8"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5"/>
+      <c r="V275" s="5"/>
+      <c r="W275" s="5"/>
+      <c r="X275" s="6"/>
+    </row>
+    <row r="276" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5"/>
+      <c r="V276" s="5"/>
+      <c r="W276" s="5"/>
+      <c r="X276" s="6"/>
+    </row>
+    <row r="277" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5"/>
+      <c r="V277" s="5"/>
+      <c r="W277" s="5"/>
+      <c r="X277" s="6"/>
+    </row>
+    <row r="278" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5"/>
+      <c r="V278" s="5"/>
+      <c r="W278" s="5"/>
+      <c r="X278" s="6"/>
+    </row>
+    <row r="279" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="5"/>
+      <c r="V279" s="5"/>
+      <c r="W279" s="5"/>
+      <c r="X279" s="6"/>
+    </row>
+    <row r="280" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="5"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="5"/>
+      <c r="V280" s="5"/>
+      <c r="W280" s="5"/>
+      <c r="X280" s="6"/>
+    </row>
+    <row r="281" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+      <c r="M281" s="5"/>
+      <c r="N281" s="5"/>
+      <c r="O281" s="5"/>
+      <c r="P281" s="5"/>
+      <c r="Q281" s="5"/>
+      <c r="R281" s="5"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="5"/>
+      <c r="U281" s="5"/>
+      <c r="V281" s="5"/>
+      <c r="W281" s="5"/>
+      <c r="X281" s="6"/>
+    </row>
+    <row r="282" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B282" s="7"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+      <c r="H282" s="8"/>
+      <c r="I282" s="8"/>
+      <c r="J282" s="8"/>
+      <c r="K282" s="8"/>
+      <c r="L282" s="8"/>
+      <c r="M282" s="8"/>
+      <c r="N282" s="8"/>
+      <c r="O282" s="8"/>
+      <c r="P282" s="8"/>
+      <c r="Q282" s="8"/>
+      <c r="R282" s="8"/>
+      <c r="S282" s="8"/>
+      <c r="T282" s="8"/>
+      <c r="U282" s="8"/>
+      <c r="V282" s="8"/>
+      <c r="W282" s="8"/>
+      <c r="X282" s="9"/>
+    </row>
+    <row r="284" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="285" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B285" s="1"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+      <c r="M285" s="2"/>
+      <c r="N285" s="2"/>
+      <c r="O285" s="2"/>
+      <c r="P285" s="2"/>
+      <c r="Q285" s="2"/>
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2"/>
+      <c r="V285" s="2"/>
+      <c r="W285" s="2"/>
+      <c r="X285" s="3"/>
+    </row>
+    <row r="286" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="4"/>
+      <c r="C286" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="27"/>
+      <c r="E286" s="27"/>
+      <c r="F286" s="27"/>
+      <c r="G286" s="27"/>
+      <c r="H286" s="27"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+      <c r="M286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="5"/>
+      <c r="P286" s="5"/>
+      <c r="Q286" s="5"/>
+      <c r="R286" s="5"/>
+      <c r="S286" s="5"/>
+      <c r="T286" s="5"/>
+      <c r="U286" s="5"/>
+      <c r="V286" s="5"/>
+      <c r="W286" s="5"/>
+      <c r="X286" s="6"/>
+    </row>
+    <row r="287" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="4"/>
+      <c r="C287" s="27"/>
+      <c r="D287" s="27"/>
+      <c r="E287" s="27"/>
+      <c r="F287" s="27"/>
+      <c r="G287" s="27"/>
+      <c r="H287" s="27"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5"/>
+      <c r="V287" s="5"/>
+      <c r="W287" s="5"/>
+      <c r="X287" s="6"/>
+    </row>
+    <row r="288" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="4"/>
+      <c r="C288" s="27"/>
+      <c r="D288" s="27"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="27"/>
+      <c r="G288" s="27"/>
+      <c r="H288" s="27"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="5"/>
+      <c r="O288" s="5"/>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="5"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="5"/>
+      <c r="U288" s="5"/>
+      <c r="V288" s="5"/>
+      <c r="W288" s="5"/>
+      <c r="X288" s="6"/>
+    </row>
+    <row r="289" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B289" s="4"/>
+      <c r="C289" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D289" s="11"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="5"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5"/>
+      <c r="V289" s="5"/>
+      <c r="W289" s="5"/>
+      <c r="X289" s="6"/>
+    </row>
+    <row r="290" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B290" s="4"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="5"/>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5"/>
+      <c r="V290" s="5"/>
+      <c r="W290" s="5"/>
+      <c r="X290" s="6"/>
+    </row>
+    <row r="291" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B291" s="4"/>
+      <c r="C291" s="10"/>
+      <c r="D291" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="5"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5"/>
+      <c r="V291" s="5"/>
+      <c r="W291" s="5"/>
+      <c r="X291" s="6"/>
+    </row>
+    <row r="292" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B292" s="4"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="13"/>
+      <c r="H292" s="13"/>
+      <c r="I292" s="13"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+      <c r="M292" s="5"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="5"/>
+      <c r="U292" s="5"/>
+      <c r="V292" s="5"/>
+      <c r="W292" s="5"/>
+      <c r="X292" s="6"/>
+    </row>
+    <row r="293" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="4"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
+      <c r="M293" s="5"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5"/>
+      <c r="V293" s="5"/>
+      <c r="W293" s="5"/>
+      <c r="X293" s="6"/>
+    </row>
+    <row r="294" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B294" s="4"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5"/>
+      <c r="V294" s="5"/>
+      <c r="W294" s="5"/>
+      <c r="X294" s="6"/>
+    </row>
+    <row r="295" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B295" s="4"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="28"/>
+      <c r="E295" s="29"/>
+      <c r="F295" s="29"/>
+      <c r="G295" s="29"/>
+      <c r="H295" s="29"/>
+      <c r="I295" s="29"/>
+      <c r="J295" s="30"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="5"/>
+      <c r="P295" s="5"/>
+      <c r="Q295" s="5"/>
+      <c r="R295" s="5"/>
+      <c r="S295" s="5"/>
+      <c r="T295" s="5"/>
+      <c r="U295" s="5"/>
+      <c r="V295" s="5"/>
+      <c r="W295" s="5"/>
+      <c r="X295" s="6"/>
+    </row>
+    <row r="296" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="4"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+      <c r="M296" s="5"/>
+      <c r="N296" s="5"/>
+      <c r="O296" s="5"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
+      <c r="R296" s="5"/>
+      <c r="S296" s="5"/>
+      <c r="T296" s="5"/>
+      <c r="U296" s="5"/>
+      <c r="V296" s="5"/>
+      <c r="W296" s="5"/>
+      <c r="X296" s="6"/>
+    </row>
+    <row r="297" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5"/>
+      <c r="V297" s="5"/>
+      <c r="W297" s="5"/>
+      <c r="X297" s="6"/>
+    </row>
+    <row r="298" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B298" s="4"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="28">
+        <v>32874</v>
+      </c>
+      <c r="E298" s="29"/>
+      <c r="F298" s="29"/>
+      <c r="G298" s="29"/>
+      <c r="H298" s="29"/>
+      <c r="I298" s="29"/>
+      <c r="J298" s="30"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5"/>
+      <c r="V298" s="5"/>
+      <c r="W298" s="5"/>
+      <c r="X298" s="6"/>
+    </row>
+    <row r="299" spans="2:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="4"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="22"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5"/>
+      <c r="V299" s="5"/>
+      <c r="W299" s="5"/>
+      <c r="X299" s="6"/>
+    </row>
+    <row r="300" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B300" s="4"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="5"/>
+      <c r="M300" s="5"/>
+      <c r="N300" s="5"/>
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="5"/>
+      <c r="U300" s="5"/>
+      <c r="V300" s="5"/>
+      <c r="W300" s="5"/>
+      <c r="X300" s="6"/>
+    </row>
+    <row r="301" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B301" s="4"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E301" s="35"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="5"/>
+      <c r="M301" s="5"/>
+      <c r="N301" s="5"/>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5"/>
+      <c r="V301" s="5"/>
+      <c r="W301" s="5"/>
+      <c r="X301" s="6"/>
+    </row>
+    <row r="302" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="24"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="5"/>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5"/>
+      <c r="V302" s="5"/>
+      <c r="W302" s="5"/>
+      <c r="X302" s="6"/>
+    </row>
+    <row r="303" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B303" s="4"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="5"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="5"/>
+      <c r="O303" s="5"/>
+      <c r="P303" s="5"/>
+      <c r="Q303" s="5"/>
+      <c r="R303" s="5"/>
+      <c r="S303" s="5"/>
+      <c r="T303" s="5"/>
+      <c r="U303" s="5"/>
+      <c r="V303" s="5"/>
+      <c r="W303" s="5"/>
+      <c r="X303" s="6"/>
+    </row>
+    <row r="304" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B304" s="4"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="5"/>
+      <c r="M304" s="5"/>
+      <c r="N304" s="5"/>
+      <c r="O304" s="5"/>
+      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
+      <c r="R304" s="5"/>
+      <c r="S304" s="5"/>
+      <c r="T304" s="5"/>
+      <c r="U304" s="5"/>
+      <c r="V304" s="5"/>
+      <c r="W304" s="5"/>
+      <c r="X304" s="6"/>
+    </row>
+    <row r="305" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B305" s="4"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="25"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="6"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="5"/>
+      <c r="O305" s="5"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="5"/>
+      <c r="T305" s="5"/>
+      <c r="U305" s="5"/>
+      <c r="V305" s="5"/>
+      <c r="W305" s="5"/>
+      <c r="X305" s="6"/>
+    </row>
+    <row r="306" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B306" s="4"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="8"/>
+      <c r="G306" s="8"/>
+      <c r="H306" s="8"/>
+      <c r="I306" s="8"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="5"/>
+      <c r="O306" s="5"/>
+      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
+      <c r="R306" s="5"/>
+      <c r="S306" s="5"/>
+      <c r="T306" s="5"/>
+      <c r="U306" s="5"/>
+      <c r="V306" s="5"/>
+      <c r="W306" s="5"/>
+      <c r="X306" s="6"/>
+    </row>
+    <row r="307" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B307" s="4"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5"/>
+      <c r="V307" s="5"/>
+      <c r="W307" s="5"/>
+      <c r="X307" s="6"/>
+    </row>
+    <row r="308" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B308" s="4"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="5"/>
+      <c r="M308" s="5"/>
+      <c r="N308" s="5"/>
+      <c r="O308" s="5"/>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="5"/>
+      <c r="T308" s="5"/>
+      <c r="U308" s="5"/>
+      <c r="V308" s="5"/>
+      <c r="W308" s="5"/>
+      <c r="X308" s="6"/>
+    </row>
+    <row r="309" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B309" s="4"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="5"/>
+      <c r="M309" s="5"/>
+      <c r="N309" s="5"/>
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5"/>
+      <c r="V309" s="5"/>
+      <c r="W309" s="5"/>
+      <c r="X309" s="6"/>
+    </row>
+    <row r="310" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B310" s="4"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="5"/>
+      <c r="M310" s="5"/>
+      <c r="N310" s="5"/>
+      <c r="O310" s="5"/>
+      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
+      <c r="R310" s="5"/>
+      <c r="S310" s="5"/>
+      <c r="T310" s="5"/>
+      <c r="U310" s="5"/>
+      <c r="V310" s="5"/>
+      <c r="W310" s="5"/>
+      <c r="X310" s="6"/>
+    </row>
+    <row r="311" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B311" s="4"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="5"/>
+      <c r="M311" s="5"/>
+      <c r="N311" s="5"/>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="5"/>
+      <c r="T311" s="5"/>
+      <c r="U311" s="5"/>
+      <c r="V311" s="5"/>
+      <c r="W311" s="5"/>
+      <c r="X311" s="6"/>
+    </row>
+    <row r="312" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B312" s="4"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+      <c r="M312" s="5"/>
+      <c r="N312" s="5"/>
+      <c r="O312" s="5"/>
+      <c r="P312" s="5"/>
+      <c r="Q312" s="5"/>
+      <c r="R312" s="5"/>
+      <c r="S312" s="5"/>
+      <c r="T312" s="5"/>
+      <c r="U312" s="5"/>
+      <c r="V312" s="5"/>
+      <c r="W312" s="5"/>
+      <c r="X312" s="6"/>
+    </row>
+    <row r="313" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B313" s="7"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="8"/>
+      <c r="G313" s="8"/>
+      <c r="H313" s="8"/>
+      <c r="I313" s="8"/>
+      <c r="J313" s="8"/>
+      <c r="K313" s="8"/>
+      <c r="L313" s="8"/>
+      <c r="M313" s="8"/>
+      <c r="N313" s="8"/>
+      <c r="O313" s="8"/>
+      <c r="P313" s="8"/>
+      <c r="Q313" s="8"/>
+      <c r="R313" s="8"/>
+      <c r="S313" s="8"/>
+      <c r="T313" s="8"/>
+      <c r="U313" s="8"/>
+      <c r="V313" s="8"/>
+      <c r="W313" s="8"/>
+      <c r="X313" s="9"/>
+    </row>
+    <row r="316" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="317" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B317" s="1"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+      <c r="M317" s="2"/>
+      <c r="N317" s="2"/>
+      <c r="O317" s="2"/>
+      <c r="P317" s="2"/>
+      <c r="Q317" s="2"/>
+      <c r="R317" s="2"/>
+      <c r="S317" s="2"/>
+      <c r="T317" s="2"/>
+      <c r="U317" s="2"/>
+      <c r="V317" s="2"/>
+      <c r="W317" s="2"/>
+      <c r="X317" s="3"/>
+    </row>
+    <row r="318" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="4"/>
+      <c r="C318" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318" s="27"/>
+      <c r="E318" s="27"/>
+      <c r="F318" s="27"/>
+      <c r="G318" s="27"/>
+      <c r="H318" s="27"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="5"/>
+      <c r="M318" s="5"/>
+      <c r="N318" s="5"/>
+      <c r="O318" s="5"/>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="5"/>
+      <c r="V318" s="5"/>
+      <c r="W318" s="5"/>
+      <c r="X318" s="6"/>
+    </row>
+    <row r="319" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="4"/>
+      <c r="C319" s="27"/>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27"/>
+      <c r="F319" s="27"/>
+      <c r="G319" s="27"/>
+      <c r="H319" s="27"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="5"/>
+      <c r="M319" s="5"/>
+      <c r="N319" s="5"/>
+      <c r="O319" s="5"/>
+      <c r="P319" s="5"/>
+      <c r="Q319" s="5"/>
+      <c r="R319" s="5"/>
+      <c r="S319" s="5"/>
+      <c r="T319" s="5"/>
+      <c r="U319" s="5"/>
+      <c r="V319" s="5"/>
+      <c r="W319" s="5"/>
+      <c r="X319" s="6"/>
+    </row>
+    <row r="320" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="4"/>
+      <c r="C320" s="27"/>
+      <c r="D320" s="27"/>
+      <c r="E320" s="27"/>
+      <c r="F320" s="27"/>
+      <c r="G320" s="27"/>
+      <c r="H320" s="27"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="5"/>
+      <c r="M320" s="5"/>
+      <c r="N320" s="5"/>
+      <c r="O320" s="5"/>
+      <c r="P320" s="5"/>
+      <c r="Q320" s="5"/>
+      <c r="R320" s="5"/>
+      <c r="S320" s="5"/>
+      <c r="T320" s="5"/>
+      <c r="U320" s="5"/>
+      <c r="V320" s="5"/>
+      <c r="W320" s="5"/>
+      <c r="X320" s="6"/>
+    </row>
+    <row r="321" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B321" s="4"/>
+      <c r="C321" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="5"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="5"/>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5"/>
+      <c r="V321" s="5"/>
+      <c r="W321" s="5"/>
+      <c r="X321" s="6"/>
+    </row>
+    <row r="322" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B322" s="4"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="5"/>
+      <c r="M322" s="5"/>
+      <c r="N322" s="5"/>
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="5"/>
+      <c r="V322" s="5"/>
+      <c r="W322" s="5"/>
+      <c r="X322" s="6"/>
+    </row>
+    <row r="323" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B323" s="4"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="5"/>
+      <c r="M323" s="5"/>
+      <c r="N323" s="5"/>
+      <c r="O323" s="5"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="5"/>
+      <c r="T323" s="5"/>
+      <c r="U323" s="5"/>
+      <c r="V323" s="5"/>
+      <c r="W323" s="5"/>
+      <c r="X323" s="6"/>
+    </row>
+    <row r="324" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B324" s="4"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="5"/>
+      <c r="M324" s="5"/>
+      <c r="N324" s="5"/>
+      <c r="O324" s="5"/>
+      <c r="P324" s="5"/>
+      <c r="Q324" s="5"/>
+      <c r="R324" s="5"/>
+      <c r="S324" s="5"/>
+      <c r="T324" s="5"/>
+      <c r="U324" s="5"/>
+      <c r="V324" s="5"/>
+      <c r="W324" s="5"/>
+      <c r="X324" s="6"/>
+    </row>
+    <row r="325" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B325" s="4"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="5"/>
+      <c r="N325" s="5"/>
+      <c r="O325" s="5"/>
+      <c r="P325" s="5"/>
+      <c r="Q325" s="5"/>
+      <c r="R325" s="5"/>
+      <c r="S325" s="5"/>
+      <c r="T325" s="5"/>
+      <c r="U325" s="5"/>
+      <c r="V325" s="5"/>
+      <c r="W325" s="5"/>
+      <c r="X325" s="6"/>
+    </row>
+    <row r="326" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B326" s="4"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="5"/>
+      <c r="M326" s="5"/>
+      <c r="N326" s="5"/>
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="5"/>
+      <c r="T326" s="5"/>
+      <c r="U326" s="5"/>
+      <c r="V326" s="5"/>
+      <c r="W326" s="5"/>
+      <c r="X326" s="6"/>
+    </row>
+    <row r="327" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B327" s="4"/>
+      <c r="C327" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="17"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I327" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J327" s="16"/>
+      <c r="K327" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L327" s="16"/>
+      <c r="M327" s="16"/>
+      <c r="N327" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O327" s="16"/>
+      <c r="P327" s="23"/>
+      <c r="Q327" s="23"/>
+      <c r="R327" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S327" s="23"/>
+      <c r="T327" s="23"/>
+      <c r="U327" s="23"/>
+      <c r="V327" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W327" s="5"/>
+      <c r="X327" s="6"/>
+    </row>
+    <row r="328" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B328" s="4"/>
+      <c r="C328" s="33">
+        <v>32309</v>
+      </c>
+      <c r="D328" s="33"/>
+      <c r="E328" s="33"/>
+      <c r="F328" s="33"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J328" s="5"/>
+      <c r="K328" s="31">
+        <v>44562</v>
+      </c>
+      <c r="L328" s="32"/>
+      <c r="M328" s="5"/>
+      <c r="N328" s="5"/>
+      <c r="O328" s="5"/>
+      <c r="P328" s="5"/>
+      <c r="Q328" s="5"/>
+      <c r="R328" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S328" s="5"/>
+      <c r="T328" s="5"/>
+      <c r="U328" s="5"/>
+      <c r="V328" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W328" s="5"/>
+      <c r="X328" s="6"/>
+    </row>
+    <row r="329" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B329" s="4"/>
+      <c r="C329" s="8"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="8"/>
+      <c r="F329" s="8"/>
+      <c r="G329" s="8"/>
+      <c r="H329" s="8"/>
+      <c r="I329" s="8"/>
+      <c r="J329" s="8"/>
+      <c r="K329" s="8"/>
+      <c r="L329" s="8"/>
+      <c r="M329" s="8"/>
+      <c r="N329" s="8"/>
+      <c r="O329" s="8"/>
+      <c r="P329" s="8"/>
+      <c r="Q329" s="8"/>
+      <c r="R329" s="8"/>
+      <c r="S329" s="8"/>
+      <c r="T329" s="8"/>
+      <c r="U329" s="8"/>
+      <c r="V329" s="8"/>
+      <c r="W329" s="8"/>
+      <c r="X329" s="6"/>
+    </row>
+    <row r="330" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B330" s="4"/>
+      <c r="C330" s="33">
+        <v>34865</v>
+      </c>
+      <c r="D330" s="33"/>
+      <c r="E330" s="33"/>
+      <c r="F330" s="33"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J330" s="5"/>
+      <c r="K330" s="31">
+        <v>44597</v>
+      </c>
+      <c r="L330" s="32"/>
+      <c r="M330" s="5"/>
+      <c r="N330" s="5"/>
+      <c r="O330" s="5"/>
+      <c r="P330" s="5"/>
+      <c r="Q330" s="5"/>
+      <c r="R330" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S330" s="5"/>
+      <c r="T330" s="5"/>
+      <c r="U330" s="5"/>
+      <c r="V330" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W330" s="5"/>
+      <c r="X330" s="6"/>
+    </row>
+    <row r="331" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B331" s="4"/>
+      <c r="C331" s="8"/>
+      <c r="D331" s="8"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="8"/>
+      <c r="G331" s="8"/>
+      <c r="H331" s="8"/>
+      <c r="I331" s="8"/>
+      <c r="J331" s="8"/>
+      <c r="K331" s="8"/>
+      <c r="L331" s="8"/>
+      <c r="M331" s="8"/>
+      <c r="N331" s="8"/>
+      <c r="O331" s="8"/>
+      <c r="P331" s="8"/>
+      <c r="Q331" s="8"/>
+      <c r="R331" s="8"/>
+      <c r="S331" s="8"/>
+      <c r="T331" s="8"/>
+      <c r="U331" s="8"/>
+      <c r="V331" s="8"/>
+      <c r="W331" s="8"/>
+      <c r="X331" s="6"/>
+    </row>
+    <row r="332" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B332" s="4"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="5"/>
+      <c r="M332" s="5"/>
+      <c r="N332" s="5"/>
+      <c r="O332" s="5"/>
+      <c r="P332" s="5"/>
+      <c r="Q332" s="5"/>
+      <c r="R332" s="5"/>
+      <c r="S332" s="5"/>
+      <c r="T332" s="5"/>
+      <c r="U332" s="5"/>
+      <c r="V332" s="5"/>
+      <c r="W332" s="5"/>
+      <c r="X332" s="6"/>
+    </row>
+    <row r="333" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B333" s="4"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+      <c r="K333" s="5"/>
+      <c r="L333" s="5"/>
+      <c r="M333" s="5"/>
+      <c r="N333" s="5"/>
+      <c r="O333" s="5"/>
+      <c r="P333" s="5"/>
+      <c r="Q333" s="5"/>
+      <c r="R333" s="5"/>
+      <c r="S333" s="5"/>
+      <c r="T333" s="5"/>
+      <c r="U333" s="5"/>
+      <c r="V333" s="5"/>
+      <c r="W333" s="5"/>
+      <c r="X333" s="6"/>
+    </row>
+    <row r="334" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B334" s="4"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="5"/>
+      <c r="M334" s="5"/>
+      <c r="N334" s="5"/>
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="5"/>
+      <c r="V334" s="5"/>
+      <c r="W334" s="5"/>
+      <c r="X334" s="6"/>
+    </row>
+    <row r="335" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="5"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="5"/>
+      <c r="O335" s="5"/>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
+      <c r="R335" s="5"/>
+      <c r="S335" s="5"/>
+      <c r="T335" s="5"/>
+      <c r="U335" s="5"/>
+      <c r="V335" s="5"/>
+      <c r="W335" s="5"/>
+      <c r="X335" s="6"/>
+    </row>
+    <row r="336" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B336" s="4"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="5"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="5"/>
+      <c r="O336" s="5"/>
+      <c r="P336" s="5"/>
+      <c r="Q336" s="5"/>
+      <c r="R336" s="5"/>
+      <c r="S336" s="5"/>
+      <c r="T336" s="5"/>
+      <c r="U336" s="5"/>
+      <c r="V336" s="5"/>
+      <c r="W336" s="5"/>
+      <c r="X336" s="6"/>
+    </row>
+    <row r="337" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B337" s="4"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5"/>
+      <c r="K337" s="5"/>
+      <c r="L337" s="5"/>
+      <c r="M337" s="5"/>
+      <c r="N337" s="5"/>
+      <c r="O337" s="5"/>
+      <c r="P337" s="5"/>
+      <c r="Q337" s="5"/>
+      <c r="R337" s="5"/>
+      <c r="S337" s="5"/>
+      <c r="T337" s="5"/>
+      <c r="U337" s="5"/>
+      <c r="V337" s="5"/>
+      <c r="W337" s="5"/>
+      <c r="X337" s="6"/>
+    </row>
+    <row r="338" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B338" s="7"/>
+      <c r="C338" s="8"/>
+      <c r="D338" s="8"/>
+      <c r="E338" s="8"/>
+      <c r="F338" s="8"/>
+      <c r="G338" s="8"/>
+      <c r="H338" s="8"/>
+      <c r="I338" s="8"/>
+      <c r="J338" s="8"/>
+      <c r="K338" s="8"/>
+      <c r="L338" s="8"/>
+      <c r="M338" s="8"/>
+      <c r="N338" s="8"/>
+      <c r="O338" s="8"/>
+      <c r="P338" s="8"/>
+      <c r="Q338" s="8"/>
+      <c r="R338" s="8"/>
+      <c r="S338" s="8"/>
+      <c r="T338" s="8"/>
+      <c r="U338" s="8"/>
+      <c r="V338" s="8"/>
+      <c r="W338" s="8"/>
+      <c r="X338" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D118:J118"/>
+  <mergeCells count="27">
+    <mergeCell ref="C330:F330"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C68:H70"/>
+    <mergeCell ref="C98:H100"/>
+    <mergeCell ref="C118:H120"/>
+    <mergeCell ref="C197:H199"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C318:H320"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="D295:J295"/>
+    <mergeCell ref="D298:J298"/>
+    <mergeCell ref="C255:H257"/>
+    <mergeCell ref="D264:J264"/>
+    <mergeCell ref="D267:J267"/>
+    <mergeCell ref="C235:H237"/>
+    <mergeCell ref="C286:H288"/>
+    <mergeCell ref="D206:J206"/>
     <mergeCell ref="C3:H5"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="K328:L328"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="C159:H161"/>
+    <mergeCell ref="D168:J168"/>
     <mergeCell ref="C39:H41"/>
-    <mergeCell ref="C69:H71"/>
-    <mergeCell ref="C89:H91"/>
-    <mergeCell ref="C109:H111"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="C209:F209"/>
-    <mergeCell ref="C199:H201"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="D176:J176"/>
-    <mergeCell ref="D179:J179"/>
-    <mergeCell ref="C147:H149"/>
-    <mergeCell ref="C167:H169"/>
+    <mergeCell ref="C138:H140"/>
+    <mergeCell ref="D147:J147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="65" max="24" man="1"/>
-    <brk id="144" max="16383" man="1"/>
+  <pageSetup scale="47" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="94" max="24" man="1"/>
+    <brk id="194" max="24" man="1"/>
+    <brk id="283" max="24" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
